--- a/data/excel.xlsx
+++ b/data/excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niujiaming/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niujiaming/src/localhost/shell-toolkit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F747FC-E72B-5444-A4C8-245CBE7EA0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE5A63C-2B2D-A149-B2A9-BC007AC09D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16400" xr2:uid="{0AD0849A-83E9-454E-A588-042D9D2088E1}"/>
   </bookViews>
@@ -42,19 +42,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>张三</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>李四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Age</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,7 +422,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -432,10 +432,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -443,7 +443,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>36</v>
@@ -454,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>32</v>
